--- a/medicine/Mort/Liste_des_monuments_aux_morts_dans_l'Oise/Liste_des_monuments_aux_morts_dans_l'Oise.xlsx
+++ b/medicine/Mort/Liste_des_monuments_aux_morts_dans_l'Oise/Liste_des_monuments_aux_morts_dans_l'Oise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_dans_l%27Oise</t>
+          <t>Liste_des_monuments_aux_morts_dans_l'Oise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article vise à recenser les monuments aux morts dans l'Oise, en France.
 Aux Marais et Laverrière ont la particularité de ne pas avoir de monuments aux morts, elles font partie des rarissimes communes françaises qui ne déplorent aucun habitant tué lors des conflits.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_dans_l%27Oise</t>
+          <t>Liste_des_monuments_aux_morts_dans_l'Oise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les monuments sont classés par ordre alphabétique de communes, ou anciennes communes.
 </t>
